--- a/GE3_TestCasesTemplate_v1.0.xlsx
+++ b/GE3_TestCasesTemplate_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universidad\Universidad\2\2oCuatrimestre\Desarrollo de Software\EjerciciosGuiados\EG3\G81.T17.EG3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963CD21A-6D77-4342-B503-736C3CE4EDEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3907A5-5077-4273-A31D-6BEBE437A305}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="256">
   <si>
     <t>I/O</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>12345678Z</t>
-  </si>
-  <si>
-    <t>jllopez@inf.uc3m.es</t>
   </si>
   <si>
     <t>&lt;valid hash for these values&gt;</t>
@@ -395,9 +392,6 @@
     <t>Guest</t>
   </si>
   <si>
-    <t>Jose Lopez</t>
-  </si>
-  <si>
     <t>ACCESS_TYPE</t>
   </si>
   <si>
@@ -671,18 +665,6 @@
     <t>Proceso</t>
   </si>
   <si>
-    <t>test_AM_FR_01_P1_</t>
-  </si>
-  <si>
-    <t>se comprueba en todos los tests anteriores donde se valida cada uno de los datos recibidos</t>
-  </si>
-  <si>
-    <t>test_AM_FR_01_P2</t>
-  </si>
-  <si>
-    <t>para aquellos que salga un codigo se obtiene la firma MD5</t>
-  </si>
-  <si>
     <t>test_AM_FR_01_P3_almacenar_valido</t>
   </si>
   <si>
@@ -803,10 +785,31 @@
     <t>EXCEPTION: Otros errores internos</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>todos los datos correctos excepto                   ?</t>
+  </si>
+  <si>
+    <t>100429094@alumnos.uc3m.es</t>
+  </si>
+  <si>
+    <t>Beatriz Benitez</t>
+  </si>
+  <si>
+    <t>@alumnos.uc3m.es</t>
+  </si>
+  <si>
+    <t>100429094alumnos.uc3m.es</t>
+  </si>
+  <si>
+    <t>100429094@.es</t>
+  </si>
+  <si>
+    <t>100429094@alumnoses</t>
+  </si>
+  <si>
+    <t>100429094@alumnos.</t>
+  </si>
+  <si>
+    <t>100429094@alumños.uc3m.es</t>
   </si>
 </sst>
 </file>
@@ -884,7 +887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -898,6 +901,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1034,7 +1038,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A1:O288">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A1:O286">
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="#"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="I/O"/>
@@ -1287,10 +1291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O977"/>
+  <dimension ref="A1:O975"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:E47"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1311,7 @@
     <col min="10" max="10" width="9.26953125" customWidth="1"/>
     <col min="11" max="11" width="13.26953125" customWidth="1"/>
     <col min="12" max="12" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="42.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="33.7265625" customWidth="1"/>
     <col min="16" max="33" width="10.54296875" customWidth="1"/>
@@ -1365,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -1374,34 +1378,34 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L2" s="2">
         <v>3</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="O2" s="1"/>
     </row>
@@ -1410,43 +1414,43 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L3" s="2">
         <v>3</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O3" s="1"/>
     </row>
@@ -1455,43 +1459,43 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L4" s="2">
         <v>3</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>18</v>
+      <c r="M4" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O4" s="1"/>
     </row>
@@ -1500,43 +1504,43 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="I5" s="5">
         <v>12345678</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L5" s="2">
         <v>3</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>18</v>
+      <c r="M5" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O5" s="1"/>
     </row>
@@ -1545,43 +1549,43 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="J6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L6" s="2">
         <v>3</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>18</v>
+      <c r="M6" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O6" s="1"/>
     </row>
@@ -1590,7 +1594,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -1599,34 +1603,34 @@
         <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L7" s="2">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>18</v>
+        <v>248</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O7" s="1"/>
     </row>
@@ -1635,7 +1639,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
@@ -1644,34 +1648,34 @@
         <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="J8" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L8" s="6">
         <v>3</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>18</v>
+      <c r="M8" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O8" s="6"/>
     </row>
@@ -1680,43 +1684,43 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L9" s="6">
         <v>3</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="O9" s="1"/>
     </row>
@@ -1725,43 +1729,43 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="H10" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L10" s="6">
         <v>3</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="O10" s="1"/>
     </row>
@@ -1770,43 +1774,43 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="H11" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L11" s="6">
         <v>3</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>18</v>
+      <c r="M11" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O11" s="1"/>
     </row>
@@ -1815,43 +1819,43 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="H12" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L12" s="6">
         <v>3</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="O12" s="1"/>
     </row>
@@ -1860,43 +1864,43 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L13" s="6">
         <v>3</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="O13" s="1"/>
     </row>
@@ -1905,43 +1909,43 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L14" s="6">
         <v>3</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>18</v>
+      <c r="M14" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O14" s="1"/>
     </row>
@@ -1950,43 +1954,43 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L15" s="6">
         <v>3</v>
       </c>
-      <c r="M15" s="6" t="s">
-        <v>18</v>
+      <c r="M15" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O15" s="1"/>
     </row>
@@ -1995,43 +1999,43 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L16" s="6">
         <v>3</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>18</v>
+      <c r="M16" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O16" s="1"/>
     </row>
@@ -2040,43 +2044,43 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L17" s="6">
         <v>3</v>
       </c>
-      <c r="M17" s="6" t="s">
-        <v>18</v>
+      <c r="M17" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O17" s="1"/>
     </row>
@@ -2085,43 +2089,43 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L18" s="6">
         <v>3</v>
       </c>
-      <c r="M18" s="6" t="s">
-        <v>18</v>
+      <c r="M18" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O18" s="1"/>
     </row>
@@ -2130,43 +2134,43 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="H19" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L19" s="1">
         <v>3</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N19" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="O19" s="1"/>
     </row>
@@ -2175,43 +2179,41 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L20" s="1">
         <v>3</v>
       </c>
-      <c r="M20" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O20" s="1"/>
     </row>
@@ -2220,43 +2222,43 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L21" s="1">
         <v>3</v>
       </c>
-      <c r="M21" s="6" t="s">
-        <v>18</v>
+      <c r="M21" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O21" s="1"/>
     </row>
@@ -2265,43 +2267,43 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L22" s="1">
         <v>3</v>
       </c>
-      <c r="M22" s="6" t="s">
-        <v>18</v>
+      <c r="M22" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O22" s="1"/>
     </row>
@@ -2310,43 +2312,43 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L23" s="1">
         <v>3</v>
       </c>
-      <c r="M23" s="6" t="s">
-        <v>18</v>
+      <c r="M23" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O23" s="1"/>
     </row>
@@ -2355,43 +2357,43 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L24" s="1">
         <v>3</v>
       </c>
-      <c r="M24" s="6" t="s">
-        <v>18</v>
+      <c r="M24" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O24" s="1"/>
     </row>
@@ -2400,43 +2402,43 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L25" s="1">
         <v>3</v>
       </c>
-      <c r="M25" s="6" t="s">
-        <v>18</v>
+      <c r="M25" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O25" s="1"/>
     </row>
@@ -2445,43 +2447,43 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L26" s="1">
         <v>3</v>
       </c>
-      <c r="M26" s="6" t="s">
-        <v>18</v>
+      <c r="M26" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O26" s="1"/>
     </row>
@@ -2490,7 +2492,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>7</v>
@@ -2499,34 +2501,34 @@
         <v>14</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L27" s="1">
         <v>1</v>
       </c>
-      <c r="M27" s="6" t="s">
-        <v>18</v>
+      <c r="M27" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O27" s="1"/>
     </row>
@@ -2535,7 +2537,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>7</v>
@@ -2544,34 +2546,34 @@
         <v>14</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L28" s="1">
         <v>2</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="O28" s="1"/>
     </row>
@@ -2580,7 +2582,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>7</v>
@@ -2589,34 +2591,34 @@
         <v>14</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L29" s="1">
         <v>3</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="O29" s="1"/>
     </row>
@@ -2625,7 +2627,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>7</v>
@@ -2634,34 +2636,34 @@
         <v>14</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L30" s="1">
         <v>14</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="O30" s="1"/>
     </row>
@@ -2670,7 +2672,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>7</v>
@@ -2679,34 +2681,34 @@
         <v>14</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L31" s="1">
         <v>15</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="M31" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="O31" s="1"/>
     </row>
@@ -2715,7 +2717,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>7</v>
@@ -2724,34 +2726,34 @@
         <v>14</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L32" s="1">
         <v>16</v>
       </c>
-      <c r="M32" s="6" t="s">
-        <v>18</v>
+      <c r="M32" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O32" s="1"/>
     </row>
@@ -2760,7 +2762,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>7</v>
@@ -2769,34 +2771,34 @@
         <v>14</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L33" s="1">
         <v>0</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="O33" s="1"/>
     </row>
@@ -2805,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>7</v>
@@ -2814,34 +2816,34 @@
         <v>14</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>117</v>
+        <v>125</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="L34" s="9">
         <v>1</v>
       </c>
-      <c r="M34" s="9" t="s">
-        <v>18</v>
+      <c r="M34" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O34" s="9"/>
     </row>
@@ -2850,7 +2852,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>7</v>
@@ -2859,191 +2861,223 @@
         <v>14</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>198</v>
-      </c>
       <c r="H35" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>117</v>
+        <v>125</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="L35" s="9">
         <v>2</v>
       </c>
-      <c r="M35" s="9" t="s">
-        <v>18</v>
+      <c r="M35" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O35" s="9"/>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E36" s="8"/>
+        <v>210</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="F36" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="G36" s="8"/>
       <c r="H36" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="9"/>
+        <v>208</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="L36" s="8">
+        <v>3</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="O36" s="9"/>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E37" s="8"/>
+        <v>210</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="F37" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="G37" s="8"/>
+      <c r="G37" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="H37" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="9"/>
+        <v>213</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="L37" s="8">
+        <v>77</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="O37" s="9"/>
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>213</v>
-      </c>
       <c r="G38" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L38" s="8">
         <v>3</v>
       </c>
-      <c r="M38" s="8" t="s">
-        <v>18</v>
+      <c r="M38" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="O38" s="9"/>
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L39" s="8">
-        <v>77</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="O39" s="9"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>7</v>
@@ -3052,43 +3086,43 @@
         <v>225</v>
       </c>
       <c r="E40" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I40" s="8">
+        <v>11111111</v>
+      </c>
+      <c r="J40" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="K40" s="8" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L40" s="8">
         <v>3</v>
       </c>
-      <c r="M40" s="8" t="s">
-        <v>18</v>
+      <c r="M40" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O40" s="9"/>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>7</v>
@@ -3097,313 +3131,269 @@
         <v>225</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>228</v>
+        <v>121</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L41" s="8">
-        <v>3</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="O41" s="9"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>232</v>
-      </c>
       <c r="G42" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="I42" s="8">
-        <v>11111111</v>
+        <v>239</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L42" s="8">
-        <v>3</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="O42" s="9"/>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L43" s="8">
-        <v>4</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O43" s="9"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G44" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H44" s="8" t="s">
         <v>241</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>245</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L44" s="8">
-        <v>5</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O44" s="9"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="L45" s="8">
-        <v>6</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O45" s="9"/>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="L46" s="8">
-        <v>7</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N46" s="9" t="s">
-        <v>251</v>
-      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="9"/>
       <c r="O46" s="9"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="L47" s="8">
-        <v>8</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N47" s="9" t="s">
-        <v>252</v>
-      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="9"/>
       <c r="O47" s="9"/>
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>7</v>
@@ -3412,7 +3402,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="10"/>
+      <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -3423,10 +3413,10 @@
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>7</v>
@@ -3446,10 +3436,10 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>7</v>
@@ -3469,10 +3459,10 @@
     </row>
     <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>7</v>
@@ -3492,10 +3482,10 @@
     </row>
     <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>7</v>
@@ -3515,10 +3505,10 @@
     </row>
     <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>7</v>
@@ -3538,10 +3528,10 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>7</v>
@@ -3561,10 +3551,10 @@
     </row>
     <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>7</v>
@@ -3583,15 +3573,9 @@
       <c r="O55" s="9"/>
     </row>
     <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>55</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -3606,15 +3590,9 @@
       <c r="O56" s="9"/>
     </row>
     <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>56</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -7521,40 +7499,8 @@
       <c r="N286" s="9"/>
       <c r="O286" s="9"/>
     </row>
-    <row r="287" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="8"/>
-      <c r="B287" s="8"/>
-      <c r="C287" s="8"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="8"/>
-      <c r="F287" s="8"/>
-      <c r="G287" s="8"/>
-      <c r="H287" s="8"/>
-      <c r="I287" s="8"/>
-      <c r="J287" s="8"/>
-      <c r="K287" s="8"/>
-      <c r="L287" s="8"/>
-      <c r="M287" s="8"/>
-      <c r="N287" s="9"/>
-      <c r="O287" s="9"/>
-    </row>
-    <row r="288" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="8"/>
-      <c r="B288" s="8"/>
-      <c r="C288" s="8"/>
-      <c r="D288" s="8"/>
-      <c r="E288" s="8"/>
-      <c r="F288" s="8"/>
-      <c r="G288" s="8"/>
-      <c r="H288" s="8"/>
-      <c r="I288" s="8"/>
-      <c r="J288" s="8"/>
-      <c r="K288" s="8"/>
-      <c r="L288" s="8"/>
-      <c r="M288" s="8"/>
-      <c r="N288" s="9"/>
-      <c r="O288" s="9"/>
-    </row>
+    <row r="287" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8242,8 +8188,6 @@
     <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -8271,321 +8215,321 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
         <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
         <v>69</v>
-      </c>
-      <c r="C25" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
         <v>72</v>
-      </c>
-      <c r="C27" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -8620,13 +8564,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -8635,10 +8579,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>5</v>
@@ -8655,25 +8599,25 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -10167,7 +10111,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -10176,7 +10120,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -10190,17 +10134,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1"/>
     </row>

--- a/GE3_TestCasesTemplate_v1.0.xlsx
+++ b/GE3_TestCasesTemplate_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universidad\Universidad\2\2oCuatrimestre\Desarrollo de Software\EjerciciosGuiados\EG3\G81.T17.EG3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3907A5-5077-4273-A31D-6BEBE437A305}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D406379D-1AF5-41BC-8A7C-F0214D033B24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O975"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1525,7 +1525,7 @@
         <v>105</v>
       </c>
       <c r="I5" s="5">
-        <v>12345678</v>
+        <v>123456789</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>115</v>

--- a/GE3_TestCasesTemplate_v1.0.xlsx
+++ b/GE3_TestCasesTemplate_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universidad\Universidad\2\2oCuatrimestre\Desarrollo de Software\EjerciciosGuiados\EG3\G81.T17.EG3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D406379D-1AF5-41BC-8A7C-F0214D033B24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D542B16-7EFC-429B-BEA2-1BF91C0FC040}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,9 +320,6 @@
     <t>test_AM_FR_01_I1_2_letras</t>
   </si>
   <si>
-    <t>12345678AA</t>
-  </si>
-  <si>
     <t>test_AM_FR_01_I1_type</t>
   </si>
   <si>
@@ -810,6 +807,9 @@
   </si>
   <si>
     <t>100429094@alumños.uc3m.es</t>
+  </si>
+  <si>
+    <t>1234567AA</t>
   </si>
 </sst>
 </file>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:O975"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -1378,31 +1378,31 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L2" s="2">
         <v>3</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>18</v>
@@ -1414,40 +1414,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>83</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L3" s="2">
         <v>3</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>84</v>
@@ -1459,40 +1459,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>88</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>85</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L4" s="2">
         <v>3</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>84</v>
@@ -1504,40 +1504,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="I5" s="5">
         <v>123456789</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L5" s="2">
         <v>3</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>90</v>
@@ -1549,40 +1549,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>91</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>92</v>
+        <v>255</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L6" s="2">
         <v>3</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>90</v>
@@ -1594,7 +1594,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
@@ -1603,34 +1603,34 @@
         <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L7" s="2">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O7" s="1"/>
     </row>
@@ -1639,7 +1639,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
@@ -1648,34 +1648,34 @@
         <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="J8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L8" s="6">
         <v>3</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O8" s="6"/>
     </row>
@@ -1684,40 +1684,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L9" s="6">
         <v>3</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>18</v>
@@ -1729,40 +1729,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L10" s="6">
         <v>3</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>18</v>
@@ -1774,43 +1774,43 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L11" s="6">
         <v>3</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O11" s="1"/>
     </row>
@@ -1819,40 +1819,40 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L12" s="6">
         <v>3</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>18</v>
@@ -1864,40 +1864,40 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L13" s="6">
         <v>3</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>18</v>
@@ -1909,43 +1909,43 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L14" s="6">
         <v>3</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O14" s="1"/>
     </row>
@@ -1954,43 +1954,43 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L15" s="6">
         <v>3</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O15" s="1"/>
     </row>
@@ -1999,43 +1999,43 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L16" s="6">
         <v>3</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O16" s="1"/>
     </row>
@@ -2044,43 +2044,43 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L17" s="6">
         <v>3</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O17" s="1"/>
     </row>
@@ -2089,43 +2089,43 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L18" s="6">
         <v>3</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O18" s="1"/>
     </row>
@@ -2134,40 +2134,40 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L19" s="1">
         <v>3</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>18</v>
@@ -2179,41 +2179,41 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L20" s="1">
         <v>3</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O20" s="1"/>
     </row>
@@ -2222,43 +2222,43 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L21" s="1">
         <v>3</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O21" s="1"/>
     </row>
@@ -2267,43 +2267,43 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L22" s="1">
         <v>3</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O22" s="1"/>
     </row>
@@ -2312,43 +2312,43 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L23" s="1">
         <v>3</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O23" s="1"/>
     </row>
@@ -2357,43 +2357,43 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L24" s="1">
         <v>3</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O24" s="1"/>
     </row>
@@ -2402,43 +2402,43 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L25" s="1">
         <v>3</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O25" s="1"/>
     </row>
@@ -2447,43 +2447,43 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F26" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L26" s="1">
         <v>3</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O26" s="1"/>
     </row>
@@ -2492,7 +2492,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>7</v>
@@ -2501,34 +2501,34 @@
         <v>14</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L27" s="1">
         <v>1</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O27" s="1"/>
     </row>
@@ -2537,7 +2537,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>7</v>
@@ -2546,31 +2546,31 @@
         <v>14</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L28" s="1">
         <v>2</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>18</v>
@@ -2582,7 +2582,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>7</v>
@@ -2591,31 +2591,31 @@
         <v>14</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L29" s="1">
         <v>3</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>18</v>
@@ -2627,7 +2627,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>7</v>
@@ -2636,31 +2636,31 @@
         <v>14</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L30" s="1">
         <v>14</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>18</v>
@@ -2672,7 +2672,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>7</v>
@@ -2681,31 +2681,31 @@
         <v>14</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L31" s="1">
         <v>15</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>18</v>
@@ -2717,7 +2717,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>7</v>
@@ -2726,34 +2726,34 @@
         <v>14</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L32" s="1">
         <v>16</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O32" s="1"/>
     </row>
@@ -2762,7 +2762,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>7</v>
@@ -2771,31 +2771,31 @@
         <v>14</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="H33" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L33" s="1">
         <v>0</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>18</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>7</v>
@@ -2816,34 +2816,34 @@
         <v>14</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L34" s="9">
         <v>1</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O34" s="9"/>
     </row>
@@ -2852,7 +2852,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>7</v>
@@ -2861,34 +2861,34 @@
         <v>14</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L35" s="9">
         <v>2</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O35" s="9"/>
     </row>
@@ -2897,40 +2897,40 @@
         <v>37</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H36" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L36" s="8">
         <v>3</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N36" s="9" t="s">
         <v>18</v>
@@ -2942,43 +2942,43 @@
         <v>38</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="G37" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="H37" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>213</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L37" s="8">
         <v>77</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O37" s="9"/>
     </row>
@@ -2987,43 +2987,43 @@
         <v>39</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F38" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L38" s="8">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O38" s="9"/>
     </row>
@@ -3032,43 +3032,43 @@
         <v>40</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F39" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="H39" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L39" s="8">
         <v>3</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O39" s="9"/>
     </row>
@@ -3077,43 +3077,43 @@
         <v>41</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F40" s="8" t="s">
+      <c r="G40" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="H40" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>228</v>
       </c>
       <c r="I40" s="8">
         <v>11111111</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L40" s="8">
         <v>3</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O40" s="9"/>
     </row>
@@ -3122,43 +3122,43 @@
         <v>42</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I41" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L41" s="8">
         <v>4</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O41" s="9"/>
     </row>
@@ -3167,43 +3167,43 @@
         <v>43</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L42" s="8">
         <v>5</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O42" s="9"/>
     </row>
@@ -3212,43 +3212,43 @@
         <v>44</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L43" s="8">
         <v>6</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O43" s="9"/>
     </row>
@@ -3257,43 +3257,43 @@
         <v>45</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L44" s="8">
         <v>7</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O44" s="9"/>
     </row>
@@ -3302,43 +3302,43 @@
         <v>46</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>17</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L45" s="8">
         <v>8</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O45" s="9"/>
     </row>
@@ -3347,7 +3347,7 @@
         <v>47</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>7</v>
@@ -3370,7 +3370,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>7</v>
@@ -3393,7 +3393,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>7</v>
@@ -3416,7 +3416,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>7</v>
@@ -3439,7 +3439,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>7</v>
@@ -3462,7 +3462,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>7</v>
@@ -3485,7 +3485,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         <v>54</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>7</v>
@@ -3531,7 +3531,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>7</v>
@@ -3554,7 +3554,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>7</v>

--- a/GE3_TestCasesTemplate_v1.0.xlsx
+++ b/GE3_TestCasesTemplate_v1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universidad\Universidad\2\2oCuatrimestre\Desarrollo de Software\EjerciciosGuiados\EG3\G81.T17.EG3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2367C60-B1E4-4F7F-8EDD-41CF878E1977}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE643370-BA3D-4578-93B1-3F8EB424F48C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="19524" windowHeight="10308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GE3 2021 F3" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ID TEST</t>
   </si>
@@ -63,17 +63,89 @@
     <t>1_3_5_6_8_10</t>
   </si>
   <si>
-    <t>Path considering that the key is not found in the keys file.</t>
-  </si>
-  <si>
     <t>12341321413241324132412341324132</t>
+  </si>
+  <si>
+    <t>1_2_3_4_6_7</t>
+  </si>
+  <si>
+    <t>test_open_door_resident</t>
+  </si>
+  <si>
+    <t>test_open_door</t>
+  </si>
+  <si>
+    <t>1_2_3_4_6_8</t>
+  </si>
+  <si>
+    <t>test_open_door_bad</t>
+  </si>
+  <si>
+    <t>Camino considerando que encuentra la clave y residente (fecha 0)</t>
+  </si>
+  <si>
+    <t>Camino considerando que encuentra la clave y no ha expirado</t>
+  </si>
+  <si>
+    <t>Camino considerando que encuentra la clave y no ha expirado (fecha menor fecha actual)</t>
+  </si>
+  <si>
+    <t>Loop: 3_8</t>
+  </si>
+  <si>
+    <t>Loop: 3_5_6_8</t>
+  </si>
+  <si>
+    <t>Loop: 3_5_6_3_5_6</t>
+  </si>
+  <si>
+    <t>Loop: 3_5_6_(99)_8</t>
+  </si>
+  <si>
+    <t>Loop: 3_5_6_(100)_9</t>
+  </si>
+  <si>
+    <t>loop_0_times</t>
+  </si>
+  <si>
+    <t>loop_1_time</t>
+  </si>
+  <si>
+    <t>loop_2_times</t>
+  </si>
+  <si>
+    <t>loop_99_times</t>
+  </si>
+  <si>
+    <t>loop_100_times</t>
+  </si>
+  <si>
+    <t>loop_101_times</t>
+  </si>
+  <si>
+    <t>No entrar al loop</t>
+  </si>
+  <si>
+    <t>Entrar 1 vez</t>
+  </si>
+  <si>
+    <t>Entrar 2 veces</t>
+  </si>
+  <si>
+    <t>Entrar 99 veces</t>
+  </si>
+  <si>
+    <t>Entrar 100 veces</t>
+  </si>
+  <si>
+    <t>Entrar 101 veces</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +155,24 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,10 +195,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,16 +553,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="1.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.26953125" customWidth="1"/>
-    <col min="4" max="4" width="62.26953125" customWidth="1"/>
+    <col min="4" max="4" width="70.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.26953125" customWidth="1"/>
     <col min="6" max="7" width="33.7265625" customWidth="1"/>
     <col min="8" max="25" width="10.54296875" customWidth="1"/>
@@ -501,15 +595,17 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -520,10 +616,16 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
     </row>
@@ -531,9 +633,15 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
@@ -542,9 +650,15 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -553,45 +667,79 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -600,7 +748,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -609,7 +757,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -618,7 +766,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -627,7 +775,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -636,7 +784,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -645,7 +793,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -654,7 +802,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -663,7 +811,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -672,7 +820,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -681,7 +829,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -690,7 +838,7 @@
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -699,7 +847,7 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -708,7 +856,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -717,7 +865,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -726,7 +874,7 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -735,7 +883,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -744,7 +892,7 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -753,7 +901,7 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -762,7 +910,7 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -771,7 +919,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -780,7 +928,7 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -789,7 +937,7 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -798,7 +946,7 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -807,7 +955,7 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -816,7 +964,7 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -825,7 +973,7 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -834,7 +982,7 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -843,7 +991,7 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -852,7 +1000,7 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -861,7 +1009,7 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -870,7 +1018,7 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -879,7 +1027,7 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -888,7 +1036,7 @@
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1851,10 +1999,11 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/GE3_TestCasesTemplate_v1.0.xlsx
+++ b/GE3_TestCasesTemplate_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universidad\Universidad\2\2oCuatrimestre\Desarrollo de Software\EjerciciosGuiados\EG3\G81.T17.EG3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE643370-BA3D-4578-93B1-3F8EB424F48C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39D6E76-DA20-4AB2-BDE4-4CB264A49175}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="19524" windowHeight="10308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>ID TEST</t>
   </si>
@@ -60,36 +60,15 @@
     <t>KEY</t>
   </si>
   <si>
-    <t>1_3_5_6_8_10</t>
-  </si>
-  <si>
     <t>12341321413241324132412341324132</t>
   </si>
   <si>
     <t>1_2_3_4_6_7</t>
   </si>
   <si>
-    <t>test_open_door_resident</t>
-  </si>
-  <si>
-    <t>test_open_door</t>
-  </si>
-  <si>
-    <t>1_2_3_4_6_8</t>
-  </si>
-  <si>
-    <t>test_open_door_bad</t>
-  </si>
-  <si>
-    <t>Camino considerando que encuentra la clave y residente (fecha 0)</t>
-  </si>
-  <si>
     <t>Camino considerando que encuentra la clave y no ha expirado</t>
   </si>
   <si>
-    <t>Camino considerando que encuentra la clave y no ha expirado (fecha menor fecha actual)</t>
-  </si>
-  <si>
     <t>Loop: 3_8</t>
   </si>
   <si>
@@ -99,12 +78,6 @@
     <t>Loop: 3_5_6_3_5_6</t>
   </si>
   <si>
-    <t>Loop: 3_5_6_(99)_8</t>
-  </si>
-  <si>
-    <t>Loop: 3_5_6_(100)_9</t>
-  </si>
-  <si>
     <t>loop_0_times</t>
   </si>
   <si>
@@ -114,15 +87,6 @@
     <t>loop_2_times</t>
   </si>
   <si>
-    <t>loop_99_times</t>
-  </si>
-  <si>
-    <t>loop_100_times</t>
-  </si>
-  <si>
-    <t>loop_101_times</t>
-  </si>
-  <si>
     <t>No entrar al loop</t>
   </si>
   <si>
@@ -132,13 +96,112 @@
     <t>Entrar 2 veces</t>
   </si>
   <si>
-    <t>Entrar 99 veces</t>
-  </si>
-  <si>
-    <t>Entrar 100 veces</t>
-  </si>
-  <si>
-    <t>Entrar 101 veces</t>
+    <t>1_2_3_8</t>
+  </si>
+  <si>
+    <t>1_2_3_4_5_7</t>
+  </si>
+  <si>
+    <t>1_2_3_4_5_8</t>
+  </si>
+  <si>
+    <t>1_2_3_4_8</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>1_3</t>
+  </si>
+  <si>
+    <t>1_2_5</t>
+  </si>
+  <si>
+    <t>1_4</t>
+  </si>
+  <si>
+    <t>Camino considerando que encuentra la clave y la fecha es 0</t>
+  </si>
+  <si>
+    <t>Camino considerando que encuentra la clave y ha expirado</t>
+  </si>
+  <si>
+    <t>Camino considerando que no encuentra la clave</t>
+  </si>
+  <si>
+    <t>Camino considerando que el fichero está vacío</t>
+  </si>
+  <si>
+    <t>test_open_door_no_clave</t>
+  </si>
+  <si>
+    <t>test_open_door_fichero_vacio</t>
+  </si>
+  <si>
+    <t>test_open_door_clave_no_exp</t>
+  </si>
+  <si>
+    <t>test_open_door_clave_fecha_0</t>
+  </si>
+  <si>
+    <t>test_open_door_clave_exp</t>
+  </si>
+  <si>
+    <t>Abrir fichero y leer datos</t>
+  </si>
+  <si>
+    <t>Fichero no encontrado</t>
+  </si>
+  <si>
+    <t>test_check_key_clave_valida</t>
+  </si>
+  <si>
+    <t>test_check_key_clave_invalida</t>
+  </si>
+  <si>
+    <t>test_read_key_file_no_fichero</t>
+  </si>
+  <si>
+    <t>test_read_key_file_fichero_mal</t>
+  </si>
+  <si>
+    <t>test_read_key_file_fichero_datos</t>
+  </si>
+  <si>
+    <t>loop_9_times</t>
+  </si>
+  <si>
+    <t>loop_10_times</t>
+  </si>
+  <si>
+    <t>loop_11_times</t>
+  </si>
+  <si>
+    <t>Loop: 3_5_6_(9)_8</t>
+  </si>
+  <si>
+    <t>Loop: 3_5_6_(10)_9</t>
+  </si>
+  <si>
+    <t>Entrar 9 veces (max-1)</t>
+  </si>
+  <si>
+    <t>Entrar 10 veces (max)</t>
+  </si>
+  <si>
+    <t>Entrar 11 veces (max+1)</t>
+  </si>
+  <si>
+    <t>Loop: no se puede</t>
+  </si>
+  <si>
+    <t>Clave valida</t>
+  </si>
+  <si>
+    <t>Clave invalida</t>
+  </si>
+  <si>
+    <t>Fichero formato erroneo</t>
   </si>
 </sst>
 </file>
@@ -195,14 +258,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,7 +401,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A1:G43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="A1:G50">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="#"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="PATH"/>
@@ -551,17 +613,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:G1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="27.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.26953125" customWidth="1"/>
     <col min="6" max="7" width="33.7265625" customWidth="1"/>
@@ -596,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -616,16 +678,16 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1"/>
     </row>
@@ -633,14 +695,14 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -650,165 +712,227 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="4"/>
@@ -817,7 +941,9 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
@@ -826,9 +952,11 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -837,7 +965,7 @@
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -846,7 +974,7 @@
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -855,7 +983,7 @@
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -864,7 +992,7 @@
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -873,7 +1001,7 @@
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -882,7 +1010,7 @@
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -891,7 +1019,7 @@
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -900,7 +1028,7 @@
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -909,7 +1037,7 @@
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -918,7 +1046,7 @@
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -927,7 +1055,7 @@
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -936,7 +1064,7 @@
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -945,7 +1073,7 @@
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -954,7 +1082,7 @@
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -963,7 +1091,7 @@
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="3"/>
       <c r="D35" s="4"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -972,7 +1100,7 @@
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -981,7 +1109,7 @@
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="3"/>
       <c r="D37" s="4"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -990,7 +1118,7 @@
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="3"/>
       <c r="D38" s="4"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -999,7 +1127,7 @@
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="3"/>
       <c r="D39" s="4"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1008,7 +1136,7 @@
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="3"/>
       <c r="D40" s="4"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1017,7 +1145,7 @@
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="C41" s="3"/>
       <c r="D41" s="4"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1026,7 +1154,7 @@
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="3"/>
       <c r="D42" s="4"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1035,33 +1163,89 @@
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="C43" s="3"/>
       <c r="D43" s="4"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1998,6 +2182,13 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
